--- a/Spreadsheets/Team TBD Final BOM.xlsx
+++ b/Spreadsheets/Team TBD Final BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEAM_TBD_HUB_DEVICE_02\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B12346F-C3CE-4F6B-8F46-2B14A83534E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2767471-D084-458B-BC58-2929D2C7C271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4847" yWindow="-387" windowWidth="7233" windowHeight="2687" xr2:uid="{B8882BC4-ADFC-4BED-83EC-C17830B4F13B}"/>
+    <workbookView xWindow="7527" yWindow="4333" windowWidth="7233" windowHeight="2687" xr2:uid="{B8882BC4-ADFC-4BED-83EC-C17830B4F13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,27 +145,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -175,59 +157,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -237,9 +172,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,20 +181,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25888DD7-8581-4BBE-9155-311C5F4A5D61}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -589,60 +516,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="6">
@@ -650,16 +577,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="6">
@@ -667,16 +594,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="6">
@@ -684,16 +611,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="6">
@@ -701,16 +628,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="6">
@@ -718,16 +645,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="6">
@@ -735,27 +662,30 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="D13" s="1" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>71.319999999999993</v>
       </c>
     </row>
